--- a/PLSstatic/PLSstatic_predicted_variables_matrix_6.xlsx
+++ b/PLSstatic/PLSstatic_predicted_variables_matrix_6.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3262762619739719</v>
+        <v>-0.3881528657325728</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3302215459401016</v>
+        <v>-1.422401472774933</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1596518856438969</v>
+        <v>-0.4244437866435278</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1703100694638367</v>
+        <v>-1.050866699940562</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1600977226186265</v>
+        <v>-0.3836540301627301</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1560724243165131</v>
+        <v>-1.15891891334993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.08535143185560611</v>
+        <v>-0.2128969977455153</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1008959538805823</v>
+        <v>-0.734581333934085</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1666191647876874</v>
+        <v>-0.1182829810542459</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1736540463033879</v>
+        <v>0.4891954813449479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4704963901068244</v>
+        <v>-0.3675051569023987</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4673882404591381</v>
+        <v>-1.110575564922281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2528749587667186</v>
+        <v>-0.4959898257773868</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2281889960699009</v>
+        <v>-1.069331284682981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4527120117892632</v>
+        <v>-0.507415669326195</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4268747970655172</v>
+        <v>-1.294794146542623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2999876193134921</v>
+        <v>-0.5630632744916217</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3347938473117575</v>
+        <v>-0.799966880559979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2252575050878117</v>
+        <v>-0.2265854024289679</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2523148483657212</v>
+        <v>-0.8112005404749119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.163509531673288</v>
+        <v>-0.3131576599809114</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1581929124504405</v>
+        <v>-0.7960896784192082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02469817081274295</v>
+        <v>0.1121047705562278</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.002053271045770372</v>
+        <v>0.4059906638239207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.01974991369924108</v>
+        <v>-0.1040433534792957</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01165667277154583</v>
+        <v>0.006105521164568056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1234085068946875</v>
+        <v>-0.1203316895413329</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0891733734307126</v>
+        <v>0.06132146560235187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2182337092899329</v>
+        <v>-0.1990523337856086</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2592408435503735</v>
+        <v>-0.2538910499556983</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4335308571298772</v>
+        <v>0.01642086647698666</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4664563989535193</v>
+        <v>0.4701908912825505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08403239607679942</v>
+        <v>0.08803292129221692</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.07614075397873757</v>
+        <v>0.5424227681091722</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3419005900991715</v>
+        <v>0.004777168182639478</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3687875178307624</v>
+        <v>0.6152803527101498</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1886532557515854</v>
+        <v>-0.06108503544209174</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2095179616591167</v>
+        <v>0.05673738131788693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4423271483317209</v>
+        <v>-0.1233115166028212</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4590180083248637</v>
+        <v>0.02085159508990211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2657376389118172</v>
+        <v>0.03550908839995269</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2879291535400696</v>
+        <v>0.6240380135394817</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1011620459929339</v>
+        <v>0.130017156459817</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.1179047181426819</v>
+        <v>0.6978554267255663</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.013345020234859</v>
+        <v>0.5289529843426263</v>
       </c>
       <c r="B24" t="n">
-        <v>2.487836992057325</v>
+        <v>1.348293124412104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5080825368581005</v>
+        <v>0.2039272114094385</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4713760998398077</v>
+        <v>0.8961312988989729</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.37828218238422</v>
+        <v>0.1872805846599569</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3594926441261313</v>
+        <v>0.8453835389252106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.2320856490971416</v>
+        <v>0.1498651402461781</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2404280108343013</v>
+        <v>0.8636842563373561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.11855784628525</v>
+        <v>0.277439487448457</v>
       </c>
       <c r="B28" t="n">
-        <v>1.016187743300049</v>
+        <v>0.9988778120555714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.336018040823907</v>
+        <v>0.5390420530567833</v>
       </c>
       <c r="B29" t="n">
-        <v>2.989822231879559</v>
+        <v>1.731651654883046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9685528288940739</v>
+        <v>0.2226721672733978</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9337925692196123</v>
+        <v>0.8592047356867505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.2107236440173876</v>
+        <v>0.134952872145877</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2248731759569715</v>
+        <v>0.8289576401940555</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7163036104220439</v>
+        <v>0.1658606336825566</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7300488436037815</v>
+        <v>0.9859219703999271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8904136445356661</v>
+        <v>0.1513716208173155</v>
       </c>
       <c r="B33" t="n">
-        <v>0.904486665590298</v>
+        <v>0.8873802742190225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.6159922895958819</v>
+        <v>0.1653805648253668</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6685991985337072</v>
+        <v>0.6288768350595377</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8317853880544233</v>
+        <v>0.1770191398357753</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8239041490282834</v>
+        <v>0.9246636234340588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7997687132225135</v>
+        <v>0.1127933991778028</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7921277994608911</v>
+        <v>0.6410161220849412</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.786617504326749</v>
+        <v>0.1980659430346069</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7595068542332571</v>
+        <v>0.635286234185378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.704282128409714</v>
+        <v>0.3635750523132738</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6978250051124387</v>
+        <v>1.740951929768651</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6160776840552593</v>
+        <v>-0.04302258259234013</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6072714793277011</v>
+        <v>-0.09044865897558364</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8039429012506336</v>
+        <v>0.1961212889136448</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7957172120965742</v>
+        <v>1.169906842525283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.571450317995348</v>
+        <v>-0.014322044083318</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5690412366594471</v>
+        <v>0.5328551281179846</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6810725991428699</v>
+        <v>0.1552623238273471</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6825768528911806</v>
+        <v>1.207789000285685</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7129342983216685</v>
+        <v>0.2596255045496341</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7077463735233436</v>
+        <v>1.172178392959763</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7031393462906079</v>
+        <v>-0.06253305069417528</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6994242641795664</v>
+        <v>0.146601474149264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7045938858390726</v>
+        <v>-0.1398218137508703</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7062684456372531</v>
+        <v>0.05655189309289133</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.291275816094166</v>
+        <v>-0.1768038231047838</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.291923876529804</v>
+        <v>-0.4580113235185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1.004736594573185</v>
+        <v>-0.178586853647123</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.005946577619947</v>
+        <v>-0.4442994466869414</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8888832235968959</v>
+        <v>-0.2199874156866536</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8789141771188377</v>
+        <v>-0.5208832128699969</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6521426578827969</v>
+        <v>-0.2173167507710742</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6473637989859361</v>
+        <v>-0.5580599226035399</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.05836332933938292</v>
+        <v>-0.1528224090189485</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05654363388829652</v>
+        <v>-0.3103989532311531</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8597445528640808</v>
+        <v>-0.2087841394367147</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.869649222521818</v>
+        <v>-0.6573789483332593</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8597445528640808</v>
+        <v>-0.2087841394367147</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.869649222521818</v>
+        <v>-0.6573789483332593</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.133692581669462</v>
+        <v>-0.1871313793200157</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.125618413991603</v>
+        <v>-0.4184160733214931</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1905484413973728</v>
+        <v>-0.2292100807853061</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1866941820320592</v>
+        <v>-0.6084888433197545</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.024217769788889</v>
+        <v>-0.1736796543751863</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.013476156371643</v>
+        <v>-0.3253329287407851</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9023343629142879</v>
+        <v>-0.1692791303097349</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9025187374914166</v>
+        <v>-0.4030173304887763</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9933118601776777</v>
+        <v>-0.211338788830096</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.972261588873665</v>
+        <v>-0.4961629609987387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.131983444729832</v>
+        <v>-0.1969742544021293</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.146443412748797</v>
+        <v>-0.6586578079303729</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8421020520757159</v>
+        <v>-0.2570606156649178</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8401218020198082</v>
+        <v>-0.8002769320314947</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.4964166743484746</v>
+        <v>-0.3056478416940189</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4902849789631545</v>
+        <v>-0.9200558447985787</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3751151680086079</v>
+        <v>-0.2299820328104743</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3792333870093613</v>
+        <v>-0.4091330910896596</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.271838180035197</v>
+        <v>-0.21940593572811</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.210090169178436</v>
+        <v>-0.191282523170061</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.6666232242737766</v>
+        <v>-0.3593152217333306</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.6866551573259019</v>
+        <v>-1.308382603932958</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9272010509697457</v>
+        <v>-0.271339990859245</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9191829534899559</v>
+        <v>-0.7254363376525796</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.111648005791168</v>
+        <v>-0.3509955609048214</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1047355647661194</v>
+        <v>-1.059998131317872</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8136201780107273</v>
+        <v>-0.1713461263293514</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.7950979557447009</v>
+        <v>-0.1751579191529552</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8001802979527574</v>
+        <v>-0.1685138181317303</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7902070866560427</v>
+        <v>-0.3928770343304469</v>
       </c>
     </row>
   </sheetData>
